--- a/tamgdenasnet/raw_data/quality2023.xlsx
+++ b/tamgdenasnet/raw_data/quality2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\tamgdenasnet\tamgdenasnet\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A370D-AA05-420B-9B85-02E7CA46D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5317CA81-4D50-49E0-985A-4A9F8186B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{28B8F5D8-8607-4F6B-99CC-77DBC953CFC1}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Bosnia And Herzegovina</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>Nigeria</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D323F3-EAD9-4A34-81ED-15AFD074D508}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:N128"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1">
         <v>172.7</v>
@@ -1369,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>171.9</v>
@@ -1411,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>169.3</v>
@@ -1453,7 +1453,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>167.5</v>
@@ -1495,7 +1495,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>166.4</v>
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <v>163.80000000000001</v>
@@ -1579,7 +1579,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <v>163.6</v>
@@ -1621,7 +1621,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <v>163.19999999999999</v>
@@ -1663,7 +1663,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>162.30000000000001</v>
@@ -1705,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>161.5</v>
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>157.30000000000001</v>
@@ -1789,7 +1789,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>154.19999999999999</v>
@@ -1831,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <v>154</v>
@@ -1873,7 +1873,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>153.80000000000001</v>
@@ -1915,7 +1915,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>153.19999999999999</v>
@@ -1957,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>151.80000000000001</v>
@@ -1999,7 +1999,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>149.69999999999999</v>
@@ -2041,7 +2041,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>148.5</v>
@@ -2083,7 +2083,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>148.4</v>
@@ -2125,7 +2125,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>147.80000000000001</v>
@@ -2167,7 +2167,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <v>140.9</v>
@@ -2209,7 +2209,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <v>139.9</v>
@@ -2251,7 +2251,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
         <v>138.80000000000001</v>
@@ -2293,7 +2293,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <v>134.30000000000001</v>
@@ -2335,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>133</v>
@@ -2377,7 +2377,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>132.9</v>
@@ -2419,7 +2419,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <v>131.6</v>
@@ -2461,7 +2461,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1">
         <v>131.4</v>
@@ -2503,7 +2503,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1">
         <v>128.6</v>
@@ -2545,7 +2545,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1">
         <v>128.6</v>
@@ -2587,7 +2587,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1">
         <v>127</v>
@@ -2629,7 +2629,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1">
         <v>126</v>
@@ -2671,7 +2671,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1">
         <v>125</v>
@@ -2713,7 +2713,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1">
         <v>122</v>
@@ -2755,7 +2755,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1">
         <v>119.4</v>
@@ -2797,7 +2797,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1">
         <v>119</v>
@@ -2839,7 +2839,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="1">
         <v>118.6</v>
@@ -2881,7 +2881,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1">
         <v>117.9</v>
@@ -2923,7 +2923,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="1">
         <v>117.4</v>
@@ -2965,7 +2965,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1">
         <v>116.8</v>
@@ -3007,7 +3007,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1">
         <v>114.7</v>
@@ -3049,7 +3049,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1">
         <v>112.7</v>
@@ -3091,7 +3091,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1">
         <v>112.5</v>
@@ -3133,7 +3133,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1">
         <v>111</v>
@@ -3175,7 +3175,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1">
         <v>110</v>
@@ -3217,7 +3217,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1">
         <v>109.6</v>
@@ -3259,7 +3259,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1">
         <v>106.5</v>
@@ -3301,7 +3301,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1">
         <v>105.2</v>
@@ -3343,7 +3343,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1">
         <v>104.1</v>
@@ -3385,7 +3385,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1">
         <v>103</v>
@@ -3427,7 +3427,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1">
         <v>102.1</v>
@@ -3469,7 +3469,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1">
         <v>102</v>
@@ -3511,7 +3511,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" s="1">
         <v>101.9</v>
@@ -3553,7 +3553,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1">
         <v>101.4</v>
@@ -3595,7 +3595,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1">
         <v>101.2</v>
@@ -3637,7 +3637,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1">
         <v>100.5</v>
@@ -3679,7 +3679,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1">
         <v>98</v>
@@ -3721,7 +3721,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1">
         <v>97.6</v>
@@ -3763,7 +3763,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1">
         <v>90.8</v>
@@ -3805,7 +3805,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="1">
         <v>89.3</v>
@@ -3847,7 +3847,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1">
         <v>88.9</v>
@@ -3889,7 +3889,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1">
         <v>81.8</v>
@@ -3931,7 +3931,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1">
         <v>81.7</v>
@@ -3973,7 +3973,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1">
         <v>73.8</v>
@@ -4015,7 +4015,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1">
         <v>72.8</v>
@@ -4057,7 +4057,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1">
         <v>72.599999999999994</v>
@@ -4099,7 +4099,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1">
         <v>70.099999999999994</v>
@@ -4141,7 +4141,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C84" s="1">
         <v>38.5</v>
